--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H2">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I2">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J2">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N2">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O2">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P2">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q2">
-        <v>25.13737210852175</v>
+        <v>1.0740577353435</v>
       </c>
       <c r="R2">
-        <v>100.549488434087</v>
+        <v>4.296230941374001</v>
       </c>
       <c r="S2">
-        <v>0.1130541462660489</v>
+        <v>0.0008301159293920611</v>
       </c>
       <c r="T2">
-        <v>0.06857597363863141</v>
+        <v>0.0003998699588788299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H3">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I3">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J3">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>148.929823</v>
       </c>
       <c r="O3">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P3">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q3">
-        <v>25.42011166039217</v>
+        <v>1.285289194127167</v>
       </c>
       <c r="R3">
-        <v>152.520669962353</v>
+        <v>7.711735164763</v>
       </c>
       <c r="S3">
-        <v>0.1143257540743098</v>
+        <v>0.0009933721426802283</v>
       </c>
       <c r="T3">
-        <v>0.1040209513302602</v>
+        <v>0.0007177666343588122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H4">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I4">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J4">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N4">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O4">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P4">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q4">
-        <v>23.807168412148</v>
+        <v>1.691863085954</v>
       </c>
       <c r="R4">
-        <v>142.843010472888</v>
+        <v>10.151178515724</v>
       </c>
       <c r="S4">
-        <v>0.1070716178376896</v>
+        <v>0.001307604285864263</v>
       </c>
       <c r="T4">
-        <v>0.09742066989304282</v>
+        <v>0.000944816838537092</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H5">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I5">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J5">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N5">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O5">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P5">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q5">
-        <v>11.49965664970375</v>
+        <v>0.7883926899557501</v>
       </c>
       <c r="R5">
-        <v>45.99862659881499</v>
+        <v>3.153570759823</v>
       </c>
       <c r="S5">
-        <v>0.05171916377226288</v>
+        <v>0.0006093316113395143</v>
       </c>
       <c r="T5">
-        <v>0.0313716226126937</v>
+        <v>0.0002935173241987338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H6">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I6">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J6">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N6">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O6">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P6">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q6">
-        <v>15.5086940559925</v>
+        <v>2.939935756471833</v>
       </c>
       <c r="R6">
-        <v>93.052164335955</v>
+        <v>17.639614538831</v>
       </c>
       <c r="S6">
-        <v>0.06974962055031961</v>
+        <v>0.002272212584601947</v>
       </c>
       <c r="T6">
-        <v>0.06346270744781625</v>
+        <v>0.001641799995515355</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H7">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I7">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J7">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N7">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O7">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P7">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q7">
-        <v>24.32755266554067</v>
+        <v>0.8845200041813335</v>
       </c>
       <c r="R7">
-        <v>145.965315993244</v>
+        <v>5.307120025088</v>
       </c>
       <c r="S7">
-        <v>0.1094120214902122</v>
+        <v>0.0006836263276871533</v>
       </c>
       <c r="T7">
-        <v>0.09955012022034157</v>
+        <v>0.0004939580518728481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H8">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I8">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J8">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N8">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O8">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P8">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q8">
-        <v>11.02461932768467</v>
+        <v>1.8776979295875</v>
       </c>
       <c r="R8">
-        <v>66.14771596610801</v>
+        <v>7.51079171835</v>
       </c>
       <c r="S8">
-        <v>0.04958270580627005</v>
+        <v>0.001451232006106802</v>
       </c>
       <c r="T8">
-        <v>0.04511354654301468</v>
+        <v>0.0006990639042796793</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H9">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I9">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J9">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>148.929823</v>
       </c>
       <c r="O9">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P9">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q9">
-        <v>11.14862178565022</v>
+        <v>2.2469787045125</v>
       </c>
       <c r="R9">
-        <v>100.337596070852</v>
+        <v>13.481872227075</v>
       </c>
       <c r="S9">
-        <v>0.05014040101640042</v>
+        <v>0.001736641108053681</v>
       </c>
       <c r="T9">
-        <v>0.06843146047062106</v>
+        <v>0.001254819809878748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H10">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I10">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J10">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N10">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O10">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P10">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q10">
-        <v>10.44122543442133</v>
+        <v>2.95776261285</v>
       </c>
       <c r="R10">
-        <v>93.971028909792</v>
+        <v>17.7465756771</v>
       </c>
       <c r="S10">
-        <v>0.04695891926824313</v>
+        <v>0.002285990575266264</v>
       </c>
       <c r="T10">
-        <v>0.06408938425914806</v>
+        <v>0.001651755360239668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H11">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I11">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J11">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N11">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O11">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P11">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q11">
-        <v>5.043460247743333</v>
+        <v>1.37829026589375</v>
       </c>
       <c r="R11">
-        <v>30.26076148646</v>
+        <v>5.513161063575</v>
       </c>
       <c r="S11">
-        <v>0.02268272475236508</v>
+        <v>0.001065250654033517</v>
       </c>
       <c r="T11">
-        <v>0.02063820725791877</v>
+        <v>0.0005131352382744708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H12">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I12">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J12">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N12">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O12">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P12">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q12">
-        <v>6.801723246913334</v>
+        <v>5.139678344462499</v>
       </c>
       <c r="R12">
-        <v>61.21550922222</v>
+        <v>30.838070066775</v>
       </c>
       <c r="S12">
-        <v>0.03059042971946304</v>
+        <v>0.00397234592265679</v>
       </c>
       <c r="T12">
-        <v>0.04174972157566178</v>
+        <v>0.002870240910643431</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H13">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I13">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J13">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N13">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O13">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P13">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q13">
-        <v>10.66945288289956</v>
+        <v>1.5463427392</v>
       </c>
       <c r="R13">
-        <v>96.02507594609601</v>
+        <v>9.2780564352</v>
       </c>
       <c r="S13">
-        <v>0.04798536146079981</v>
+        <v>0.001195134765915675</v>
       </c>
       <c r="T13">
-        <v>0.065490269311949</v>
+        <v>0.0008635513536971008</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H14">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I14">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J14">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N14">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O14">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P14">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q14">
-        <v>8.302779180605</v>
+        <v>155.279434110411</v>
       </c>
       <c r="R14">
-        <v>49.81667508363</v>
+        <v>931.6766046624659</v>
       </c>
       <c r="S14">
-        <v>0.03734135803243369</v>
+        <v>0.1200121069104474</v>
       </c>
       <c r="T14">
-        <v>0.03397557810091405</v>
+        <v>0.08671542351389544</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H15">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I15">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J15">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>148.929823</v>
       </c>
       <c r="O15">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P15">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q15">
-        <v>8.396166987996667</v>
+        <v>185.8177378783685</v>
       </c>
       <c r="R15">
-        <v>75.56550289197</v>
+        <v>1672.359640905317</v>
       </c>
       <c r="S15">
-        <v>0.03776136529455891</v>
+        <v>0.1436144995753889</v>
       </c>
       <c r="T15">
-        <v>0.0515365917322055</v>
+        <v>0.1556541978224185</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H16">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I16">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J16">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N16">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O16">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P16">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q16">
-        <v>7.86341791768</v>
+        <v>244.5972259537906</v>
       </c>
       <c r="R16">
-        <v>70.77076125911999</v>
+        <v>2201.375033584115</v>
       </c>
       <c r="S16">
-        <v>0.03536535146070777</v>
+        <v>0.189043891094378</v>
       </c>
       <c r="T16">
-        <v>0.04826651964194408</v>
+        <v>0.2048920917353296</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H17">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I17">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J17">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N17">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O17">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P17">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q17">
-        <v>3.798293210725</v>
+        <v>113.9800652466428</v>
       </c>
       <c r="R17">
-        <v>22.78975926435</v>
+        <v>683.8803914798569</v>
       </c>
       <c r="S17">
-        <v>0.01708264469145009</v>
+        <v>0.08809272041984299</v>
       </c>
       <c r="T17">
-        <v>0.01554289290658401</v>
+        <v>0.06365189109960434</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H18">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I18">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J18">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N18">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O18">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P18">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q18">
-        <v>5.122463142550001</v>
+        <v>425.0344702744587</v>
       </c>
       <c r="R18">
-        <v>46.10216828295</v>
+        <v>3825.310232470129</v>
       </c>
       <c r="S18">
-        <v>0.02303803654813893</v>
+        <v>0.3284999238916192</v>
       </c>
       <c r="T18">
-        <v>0.03144223930018083</v>
+        <v>0.3560392041837955</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.743059666666666</v>
+      </c>
+      <c r="H19">
+        <v>11.229179</v>
+      </c>
+      <c r="I19">
+        <v>0.9680968505584552</v>
+      </c>
+      <c r="J19">
+        <v>0.9740720872985071</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>34.16388266666667</v>
+      </c>
+      <c r="N19">
+        <v>102.491648</v>
+      </c>
+      <c r="O19">
+        <v>0.1020907243007408</v>
+      </c>
+      <c r="P19">
+        <v>0.1099705867155567</v>
+      </c>
+      <c r="Q19">
+        <v>127.8774512663324</v>
+      </c>
+      <c r="R19">
+        <v>1150.897061396992</v>
+      </c>
+      <c r="S19">
+        <v>0.09883370866677868</v>
+      </c>
+      <c r="T19">
+        <v>0.1071192789434637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.156593</v>
+      </c>
+      <c r="I20">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J20">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>41.484627</v>
+      </c>
+      <c r="N20">
+        <v>82.96925400000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1239670461082663</v>
+      </c>
+      <c r="P20">
+        <v>0.08902362016592849</v>
+      </c>
+      <c r="Q20">
+        <v>2.165400731937</v>
+      </c>
+      <c r="R20">
+        <v>12.992404391622</v>
+      </c>
+      <c r="S20">
+        <v>0.001673591262320041</v>
+      </c>
+      <c r="T20">
+        <v>0.001209262788874541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.156593</v>
+      </c>
+      <c r="I21">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J21">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>49.64327433333333</v>
+      </c>
+      <c r="N21">
+        <v>148.929823</v>
+      </c>
+      <c r="O21">
+        <v>0.1483472438656769</v>
+      </c>
+      <c r="P21">
+        <v>0.159797411148604</v>
+      </c>
+      <c r="Q21">
+        <v>2.591263085893222</v>
+      </c>
+      <c r="R21">
+        <v>23.321367773039</v>
+      </c>
+      <c r="S21">
+        <v>0.002002731039554083</v>
+      </c>
+      <c r="T21">
+        <v>0.002170626881948002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.156593</v>
+      </c>
+      <c r="I22">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J22">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>65.346868</v>
+      </c>
+      <c r="N22">
+        <v>196.040604</v>
+      </c>
+      <c r="O22">
+        <v>0.195273738350999</v>
+      </c>
+      <c r="P22">
+        <v>0.210345922449721</v>
+      </c>
+      <c r="Q22">
+        <v>3.410954033574667</v>
+      </c>
+      <c r="R22">
+        <v>30.698586302172</v>
+      </c>
+      <c r="S22">
+        <v>0.002636252395490529</v>
+      </c>
+      <c r="T22">
+        <v>0.002857258515614586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.156593</v>
+      </c>
+      <c r="I23">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J23">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>30.4510415</v>
+      </c>
+      <c r="N23">
+        <v>60.902083</v>
+      </c>
+      <c r="O23">
+        <v>0.09099577213687446</v>
+      </c>
+      <c r="P23">
+        <v>0.06534618118063169</v>
+      </c>
+      <c r="Q23">
+        <v>1.589473313869834</v>
+      </c>
+      <c r="R23">
+        <v>9.536839883219001</v>
+      </c>
+      <c r="S23">
+        <v>0.001228469451658441</v>
+      </c>
+      <c r="T23">
+        <v>0.0008876375185541476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.16913</v>
-      </c>
-      <c r="H19">
-        <v>0.50739</v>
-      </c>
-      <c r="I19">
-        <v>0.1867271339856154</v>
-      </c>
-      <c r="J19">
-        <v>0.2300853654389008</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>47.50960133333334</v>
-      </c>
-      <c r="N19">
-        <v>142.528804</v>
-      </c>
-      <c r="O19">
-        <v>0.193535760909338</v>
-      </c>
-      <c r="P19">
-        <v>0.2143619332893629</v>
-      </c>
-      <c r="Q19">
-        <v>8.035298873506667</v>
-      </c>
-      <c r="R19">
-        <v>72.31768986156</v>
-      </c>
-      <c r="S19">
-        <v>0.03613837795832598</v>
-      </c>
-      <c r="T19">
-        <v>0.04932154375707234</v>
+      <c r="G24">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.156593</v>
+      </c>
+      <c r="I24">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J24">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>113.5526836666667</v>
+      </c>
+      <c r="N24">
+        <v>340.658051</v>
+      </c>
+      <c r="O24">
+        <v>0.3393254752374426</v>
+      </c>
+      <c r="P24">
+        <v>0.3655162783395581</v>
+      </c>
+      <c r="Q24">
+        <v>5.927185131138112</v>
+      </c>
+      <c r="R24">
+        <v>53.344666180243</v>
+      </c>
+      <c r="S24">
+        <v>0.004580992838564631</v>
+      </c>
+      <c r="T24">
+        <v>0.004965033249603831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.156593</v>
+      </c>
+      <c r="I25">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J25">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>34.16388266666667</v>
+      </c>
+      <c r="N25">
+        <v>102.491648</v>
+      </c>
+      <c r="O25">
+        <v>0.1020907243007408</v>
+      </c>
+      <c r="P25">
+        <v>0.1099705867155567</v>
+      </c>
+      <c r="Q25">
+        <v>1.783274959473778</v>
+      </c>
+      <c r="R25">
+        <v>16.049474635264</v>
+      </c>
+      <c r="S25">
+        <v>0.001378254540359262</v>
+      </c>
+      <c r="T25">
+        <v>0.001493798366522951</v>
       </c>
     </row>
   </sheetData>
